--- a/meta/Метаданные 6.3.1.xlsx
+++ b/meta/Метаданные 6.3.1.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 1 ноября\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
-    <sheet name="Пример" sheetId="3" r:id="rId2"/>
+    <sheet name="Пример" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -33,33 +32,12 @@
     <t>2. Информация об организации</t>
   </si>
   <si>
-    <t>Пожалуйста, укажите название организации, которая предоставляет эти данные в НСК / национальную платформу данных</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите имя координатора для этого индикатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите адрес электронной почты координатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, укажите номер телефона координатора</t>
-  </si>
-  <si>
-    <t>Пожалуйста, предоставьте ссылку на сайт организации</t>
-  </si>
-  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
-    <t>Точное определение индикатора, включая ссылки на стандарты и классификации, предпочтительно опираясь на согласованные на международном уровне определения. Определение показателя должно быть однозначным и выражаться в универсально применимых терминах. Он должен четко выражать единицу измерения (пропорции, доллары, количество человек и т.д.)</t>
-  </si>
-  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
-    <t>Точное определение всех различных понятий, переменных и терминов, связанных с индикатором, включая ссылку на любые связанные классификации и международные стандарты</t>
-  </si>
-  <si>
     <t>4. Источники данных и методы сбора</t>
   </si>
   <si>
@@ -69,48 +47,27 @@
     <t>Метод расчета:</t>
   </si>
   <si>
-    <t>Объяснение того, как рассчитывается показатель, включая математические формулы и описательную информацию о вычислениях, выполненных на исходных данных для получения показателя (включая корректировки и взвешивание).</t>
-  </si>
-  <si>
     <t>Комментарий и ограничения:</t>
   </si>
   <si>
-    <t>Комментарии о целесообразности, пригодности, актуальности и ограничениях показателя.</t>
-  </si>
-  <si>
     <t>Гарантия качества:</t>
   </si>
   <si>
-    <t>Информация о шагах, предпринятых для обеспечения качества. Например, информация о том, как обрабатываются пропущенные данные, о действующих системах валидации, конкретных рекомендациях или других механизмах, касающихся качества данных.</t>
-  </si>
-  <si>
     <t>6. Доступность данных и дезагрегация</t>
   </si>
   <si>
     <t>Доступность данных и пробелы:</t>
   </si>
   <si>
-    <t>Описание доступности данных, включая периоды времени, за которые данные (не) доступны</t>
-  </si>
-  <si>
     <t>Разбивка:</t>
   </si>
   <si>
-    <t>Уточнение размеров и уровней, используемых для дезагрегации показателя (например, доход, пол, возрастная группа, географическое положение, статус инвалидности и т.д.).</t>
-  </si>
-  <si>
     <t>7. Сопоставимость с международными данными / стандартами</t>
   </si>
   <si>
-    <t>Обсуждение сравнимости этих данных и их отклонения от международно оценочных данных, объяснение источников расхождений, выделение и обобщение основных источников различий.</t>
-  </si>
-  <si>
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Любые ссылки и документация, которые могут помочь понять данные для этого индикатора</t>
-  </si>
-  <si>
     <t>Электронная почта контактного лица</t>
   </si>
   <si>
@@ -141,19 +98,10 @@
     <t>Обоснование и толкование</t>
   </si>
   <si>
-    <t>Объясните, как этот показатель связан с целью, и каким-либо конкретным образом его следует интерпретировать, например, для определенных пороговых значений. Например, значение, превышающее 20 процентов, указывает на серьезное недоедание, а значение в диапазоне 10-20 указывает на умеренно высокое недоедание</t>
-  </si>
-  <si>
     <t>Источники данных</t>
   </si>
   <si>
-    <t>Описание типа источников (административных, выборочных обследований или переписей) и названия фактического источника данных для расчета этого показателя</t>
-  </si>
-  <si>
     <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>Описание методов, используемых для сбора данных. Это описание должно включать, когда это применимо, используемый образец выборки, вопросы, используемые для сбора данных, тип интервью, даты / продолжительность полевых работ, размер выборки, частоту ответов и любые изменения источника данных с течением времени, детали знаменателя (если из другого источника) и любую другую соответствующую информацию, связанную с происхождением источника или индикатора.                                                  Описание механизма сбора данных: например, частота и периоды, когда данные собираются, а также частота и периоды, когда данные передаются в НСУ или национальную платформу отчетности.</t>
   </si>
   <si>
     <t>Керималиева Н.К</t>
@@ -265,28 +213,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -426,91 +356,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,224 +697,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -1020,214 +705,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="26" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="48.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="252" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="252" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="27"/>
-      <c r="K65" s="26"/>
+      <c r="F65" s="18"/>
+      <c r="K65" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
